--- a/server/seed-data/team-player.xlsx
+++ b/server/seed-data/team-player.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12580"/>
+    <workbookView windowWidth="25600" windowHeight="10580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,123 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>truongpham</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>truongpham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Tên đội</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>truongpham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Danh sách thành viên theo thứ tự: tên - sđt - emaill -số áo - vị trí - ngày sinh (mỗi thành viên cách nhau bằng dấu ",", mỗi thông tin của thành viên cách nhau bằng "-". tối thiểu 0 và tối ta 11 thành viên</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>truongpham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+độ tuổi </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>truongpham:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+người liên hệ</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Tên đội</t>
+    <t>nameteam</t>
   </si>
   <si>
-    <t>Danh sách thành viên theo thứ tự: tên - sđt - emaill -số áo - vị trí - ngày sinh (mỗi thành viên cách nhau bằng dấu ",", mỗi thông tin của thành viên cách nhau bằng "-". tối thiểu 0 và tối ta 11 thành viên</t>
+    <t>players</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
 </sst>
 </file>
@@ -27,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,7 +160,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -58,13 +184,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +197,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -86,27 +243,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +274,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -126,63 +289,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="33">
@@ -194,19 +315,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,43 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,115 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +506,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -407,6 +543,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -417,6 +579,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,197 +606,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -958,24 +1079,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>